--- a/Giải pháp.xlsx
+++ b/Giải pháp.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Đề tài KHCN\2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3. Private\Đề tài\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50581744-BEA9-44B0-BF2C-22D5CA8BF9C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{ACF2AB05-72FF-4E21-A4EA-A784831E7318}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="5" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,15 +35,15 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{670BC4F6-9E62-478F-9419-E2BFC29646E6}" keepAlive="1" name="Query - EventFootball" description="Connection to the 'EventFootball' query in the workbook." type="5" refreshedVersion="0" background="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" keepAlive="1" name="Query - EventFootball" description="Connection to the 'EventFootball' query in the workbook." type="5" refreshedVersion="0" background="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=EventFootball;Extended Properties=&quot;&quot;" command="SELECT * FROM [EventFootball]"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="78">
   <si>
     <t>Duel</t>
   </si>
@@ -212,14 +211,95 @@
   </si>
   <si>
     <t>Phát bóng lên</t>
+  </si>
+  <si>
+    <t>Bàn thắng</t>
+  </si>
+  <si>
+    <t>Giới thiệu đội hình</t>
+  </si>
+  <si>
+    <t>Cản phá bóng xuất xắc</t>
+  </si>
+  <si>
+    <t>Thẻ vàng</t>
+  </si>
+  <si>
+    <t>Thẻ đỏ</t>
+  </si>
+  <si>
+    <t>Check VAR</t>
+  </si>
+  <si>
+    <t>Biểu diễn kỹ năng</t>
+  </si>
+  <si>
+    <t>Sự kiện</t>
+  </si>
+  <si>
+    <t>Cảnh quay đề xuất</t>
+  </si>
+  <si>
+    <t>Tấn công ghi bàn</t>
+  </si>
+  <si>
+    <t>Không công nhận bàn thắng</t>
+  </si>
+  <si>
+    <t>Tấn công ghi bàn không hợp lệ</t>
+  </si>
+  <si>
+    <t>Tấn công nguy hiểm</t>
+  </si>
+  <si>
+    <t>Phạm lỗi thẻ đỏ</t>
+  </si>
+  <si>
+    <t>Phạm lỗi thẻ vàng</t>
+  </si>
+  <si>
+    <t>Phạm lỗi - Trọng tài rút thẻ vàng</t>
+  </si>
+  <si>
+    <t>Phạm lỗi - Trọng tài rút thẻ đỏ</t>
+  </si>
+  <si>
+    <t>Tổ hợp các sự kiện</t>
+  </si>
+  <si>
+    <t>- Chuyền -&gt; Sút -&gt; Bàn thắng
+- Phạt góc -&gt; Sút (đánh đầu) -&gt; Bàn thắng
+- Ném biên -&gt; Sút (đánh đầu) -&gt; Bàn thắng
+- Phạm lỗi -&gt; Phạt trực tiếp -&gt; Bàn thắng
+- Phạm lỗi -&gt; Penalty -&gt; Bàn thắng</t>
+  </si>
+  <si>
+    <t>Tấn công ghi bàn -&gt; Việt vị, phạm lỗi -&gt; Không công nhận bàn thắng</t>
+  </si>
+  <si>
+    <t>- Chuyền(phạt góc, ném biên) -&gt; Sút (đánh đầu) -&gt; Bị thủ môn (hậu vệ) cản phá
+- Chuyền(phạt góc, ném biên) -&gt; Sút (đánh đầu) -&gt; Bóng chệch khung thành
+- Phạm lỗi -&gt; Phạt trực tiếp -&gt; Bị thủ môn cản phá (Bóng chệch khung thành)
+- Phạm lỗi -&gt; Penalty -&gt; Bị thủ môn cản phá (Bóng chệch khung thành)</t>
+  </si>
+  <si>
+    <t>STT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -235,7 +315,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -243,12 +323,49 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -562,18 +679,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{026928F7-A563-4707-BC06-87BD0E516614}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39:C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1122,17 +1241,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EC72748-CBDC-4E5D-BDC9-8FC3F8280C03}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="E2" sqref="E2:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1469,16 +1590,192 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B3B17D7-C94F-44A3-988B-13ECCC8EFA33}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N30" sqref="N30"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="5.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="72.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>1</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="6"/>
+    </row>
+    <row r="22" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>2</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>3</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <v>4</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <v>5</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <v>6</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <v>7</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="6"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
